--- a/dailyupdate.xlsx
+++ b/dailyupdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7F5C25-4DF0-4A6F-83D5-FCF15689DBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7BD727-8A12-45B2-AB46-B05DC4CF684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>S.NO</t>
   </si>
@@ -33,22 +33,13 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>TIMING</t>
+    <t>TOPIC AND TIMINGS</t>
   </si>
   <si>
-    <t>TOPIC</t>
+    <t>Backup at 10pm to 10.45pm, odbc basics at 3pm to 3.45, project  plan and understanding the concept.</t>
   </si>
   <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>10AM-10PM</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Completed logout,login page and understand the odbc concept also taken backup</t>
+    <t>Morning Tally installation, vouchers, company, and from  2.45pm started doing a project (voucher view page)</t>
   </si>
 </sst>
 </file>
@@ -98,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -140,10 +131,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -161,9 +152,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -176,57 +165,37 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,55 +484,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="82.88671875" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="129.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45467</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>45468</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>45467</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dailyupdate.xlsx
+++ b/dailyupdate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7BD727-8A12-45B2-AB46-B05DC4CF684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A53FB17-359B-4E47-BD37-8F2A726A3070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>S.NO</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Morning Tally installation, vouchers, company, and from  2.45pm started doing a project (voucher view page)</t>
+  </si>
+  <si>
+    <t>11PM to 11.45PM taken backup, Rest of the time worked on vouchers view page</t>
   </si>
 </sst>
 </file>
@@ -172,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +199,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,6 +541,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>45469</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dailyupdate.xlsx
+++ b/dailyupdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A53FB17-359B-4E47-BD37-8F2A726A3070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE129EE-5F70-4D0E-A638-38EB465BF22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>S.NO</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>11PM to 11.45PM taken backup, Rest of the time worked on vouchers view page</t>
+  </si>
+  <si>
+    <t>At 9.30am to 10.30am some tally error resolved and after that worked on project.</t>
   </si>
 </sst>
 </file>
@@ -175,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -199,15 +202,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,14 +536,25 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>45469</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45470</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/dailyupdate.xlsx
+++ b/dailyupdate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE129EE-5F70-4D0E-A638-38EB465BF22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E9E0D0-3091-41F3-ADF4-60CEFE7C4240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>S.NO</t>
   </si>
@@ -45,7 +45,10 @@
     <t>11PM to 11.45PM taken backup, Rest of the time worked on vouchers view page</t>
   </si>
   <si>
-    <t>At 9.30am to 10.30am some tally error resolved and after that worked on project.</t>
+    <t>At 9.30am to 10.30am some tally error resolved and after that worked on project, 10pm to 10.30pm backup.</t>
+  </si>
+  <si>
+    <t>All day working on how to display a Voucher entry and view page.</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,6 +560,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45471</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dailyupdate.xlsx
+++ b/dailyupdate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E9E0D0-3091-41F3-ADF4-60CEFE7C4240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8891111-AABA-42C5-B37E-FD11DDD1BC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>S.NO</t>
   </si>
@@ -48,7 +48,16 @@
     <t>At 9.30am to 10.30am some tally error resolved and after that worked on project, 10pm to 10.30pm backup.</t>
   </si>
   <si>
-    <t>All day working on how to display a Voucher entry and view page.</t>
+    <t>All day working on how to display a Voucher entry and view page, 10PM to 10.45PM backup.</t>
+  </si>
+  <si>
+    <t>01--7-2024</t>
+  </si>
+  <si>
+    <t>4.30pm to 6.00pm Studied about VDI  and AD.</t>
+  </si>
+  <si>
+    <t>10.30AM to 11.30AM APK work, 12PM to 3PM -odbc connectivity issue , 3PM to 5.45PM project work, Backup .</t>
   </si>
 </sst>
 </file>
@@ -493,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,6 +580,28 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>45472</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dailyupdate.xlsx
+++ b/dailyupdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8891111-AABA-42C5-B37E-FD11DDD1BC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72685043-D939-4592-84A6-BF121B6212C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>S.NO</t>
   </si>
@@ -51,13 +51,13 @@
     <t>All day working on how to display a Voucher entry and view page, 10PM to 10.45PM backup.</t>
   </si>
   <si>
-    <t>01--7-2024</t>
-  </si>
-  <si>
     <t>4.30pm to 6.00pm Studied about VDI  and AD.</t>
   </si>
   <si>
     <t>10.30AM to 11.30AM APK work, 12PM to 3PM -odbc connectivity issue , 3PM to 5.45PM project work, Backup .</t>
+  </si>
+  <si>
+    <t>Fortinet Course</t>
   </si>
 </sst>
 </file>
@@ -502,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,18 +588,40 @@
         <v>45472</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7">
+        <v>45474</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>45475</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>45476</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/dailyupdate.xlsx
+++ b/dailyupdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72685043-D939-4592-84A6-BF121B6212C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEDB867-88A3-47D9-B2B7-AA52FEAE1BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>10.30AM to 11.30AM APK work, 12PM to 3PM -odbc connectivity issue , 3PM to 5.45PM project work, Backup .</t>
   </si>
   <si>
-    <t>Fortinet Course</t>
+    <t>Fortinet Course, 10.30pm to 11.30pm I have taken backup.</t>
   </si>
 </sst>
 </file>
@@ -107,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,11 +186,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +225,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -502,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,6 +638,9 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dailyupdate.xlsx
+++ b/dailyupdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEDB867-88A3-47D9-B2B7-AA52FEAE1BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FB3F10-76C5-4BCC-BE35-6E9A77212F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>S.NO</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Fortinet Course, 10.30pm to 11.30pm I have taken backup.</t>
+  </si>
+  <si>
+    <t>Fortinet Course, 10.30pm to 11.50pm I have taken backup.</t>
+  </si>
+  <si>
+    <t>Fortinet Course, 10.30pm to 11.55pm I have taken backup.</t>
   </si>
 </sst>
 </file>
@@ -107,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -186,22 +192,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,9 +220,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -516,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,8 +630,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>45477</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>45478</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyupdate.xlsx
+++ b/dailyupdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FB3F10-76C5-4BCC-BE35-6E9A77212F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A02B3-C1A5-4B2F-853B-42A01BAD6981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>S.NO</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Fortinet Course, 10.30pm to 11.55pm I have taken backup.</t>
+  </si>
+  <si>
+    <t>Fortinet Course</t>
   </si>
 </sst>
 </file>
@@ -508,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,6 +655,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>45479</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dailyupdate.xlsx
+++ b/dailyupdate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\varsh\OneDrive\Desktop\daily report\daily-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8A02B3-C1A5-4B2F-853B-42A01BAD6981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02469B16-16E0-4C10-B11A-8337E067ED5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>S.NO</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>Fortinet Course</t>
+  </si>
+  <si>
+    <t>Fortinet Course, Backup</t>
+  </si>
+  <si>
+    <t>Fortinet course</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,6 +672,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45481</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>45482</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
